--- a/SANTA_MARIA.xlsx
+++ b/SANTA_MARIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C558121E-FFE8-47A6-BE38-D4775D3C3892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{721E056B-1A2F-4A7D-A740-0902B43FEC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1253,7 +1253,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{2D627B9F-D70E-4BD3-A5E2-DB509BF30735}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{9BF01117-0BAC-4356-945E-8E77E4B1D467}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1283,10 +1283,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{389A45CD-FFE6-4F32-ABBE-57EDEC3178AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08A8251-9D8A-4E86-BAEB-41AF9D752085}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1324,7 +1324,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC0ABF3-EE29-45C5-813E-E3628C27DCDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F81794-42B6-4DAC-96E0-353DC9F8F0F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1387,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B252D89A-653A-4063-A49E-4D0277197490}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45EB960-E87A-443C-9B6F-7CFD2BDC7010}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,7 +1406,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B765A28-76EB-05DE-E79D-EF3A42609F5C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FA18A6-F809-F63D-DCA3-1DF38E520EDD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F29FE47-B05E-327C-3446-5C9C8AF22139}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316BD03A-A4F3-35FD-8513-7C008F98AE7D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1474,7 +1474,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F63575B-8E5B-467B-3C60-63C2E00E8B49}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9409AE-FE12-D99D-F38B-61BD73AF760C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1505,7 +1505,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F85B9752-DEFE-4A04-BD80-4E134C162B1B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609882D0-8ACD-82A6-586A-D597C7643798}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1536,7 +1536,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C3AADD-D0DF-0A97-E78E-807E3FF8AC54}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{169E9AAA-B575-EABA-9249-39867560F1E7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1579,7 +1579,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7137676-E2D5-4F31-AD1F-905D677C3FA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04BB73FF-BC45-4DA3-88A0-7CEE7331A3F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1617,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D775E7F0-ACEA-43C9-A932-3405352A0BBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF28248-CECD-4821-900F-42BEA2988A76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1660,7 +1660,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1AD6335-30A1-42D5-AF24-434D1BF1DE02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{420D76A4-98A0-421E-8E75-AE10A5BCF787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1973,7 +1973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD85CEC-3CDA-42EF-9026-58CCB79E5810}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C32428F-7CB8-4375-A1F2-5554DCE104B5}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/SANTA_MARIA.xlsx
+++ b/SANTA_MARIA.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{721E056B-1A2F-4A7D-A740-0902B43FEC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{330852B7-FBAC-4A98-B41D-44AA9880FF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="313">
   <si>
     <t>COMARCA</t>
   </si>
@@ -965,15 +964,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>SANTA MARIA</t>
   </si>
 </sst>
 </file>
@@ -1165,7 +1155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1233,27 +1223,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{9BF01117-0BAC-4356-945E-8E77E4B1D467}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{EB329FFC-CAEC-40D0-8BA8-9C137F31F99B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1283,10 +1258,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08A8251-9D8A-4E86-BAEB-41AF9D752085}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB399B8-E5E3-4E05-B5C8-D6F0624D8BAF}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1324,7 +1299,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F81794-42B6-4DAC-96E0-353DC9F8F0F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{998DE5A6-29B7-419D-A38B-40411B2F47D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1362,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45EB960-E87A-443C-9B6F-7CFD2BDC7010}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B8E4E2-6FD6-4B25-844C-A97963792651}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,7 +1381,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FA18A6-F809-F63D-DCA3-1DF38E520EDD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F76F6509-3D87-14F0-4DEA-86F261BE11FC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1455,7 +1430,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{316BD03A-A4F3-35FD-8513-7C008F98AE7D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B492B12-F723-0603-A009-5806782719BA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1474,7 +1449,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D9409AE-FE12-D99D-F38B-61BD73AF760C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C124DE00-3FA0-9611-5313-96149862D1BB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1505,7 +1480,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609882D0-8ACD-82A6-586A-D597C7643798}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8730E2A-C56A-12E1-A32C-D41ACE674F58}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1536,7 +1511,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{169E9AAA-B575-EABA-9249-39867560F1E7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5846F52A-79A5-CA97-6849-CC0C15E3335D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1579,7 +1554,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04BB73FF-BC45-4DA3-88A0-7CEE7331A3F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03960E3D-CC70-4077-9BBF-7F0D93BBF53A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1592,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF28248-CECD-4821-900F-42BEA2988A76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{975719C2-1B9E-4FCA-8716-0712D394865C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1660,7 +1635,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{420D76A4-98A0-421E-8E75-AE10A5BCF787}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC38E1C1-DC25-4DDC-813E-E1BC2CEC4B71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1973,7 +1948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C32428F-7CB8-4375-A1F2-5554DCE104B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916232E7-9955-43E0-B706-E1A0FAC246A2}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1985,98 +1960,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="35"/>
-    <col min="6" max="6" width="2" style="35" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="35" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="35"/>
+    <col min="1" max="5" width="12.5703125" style="30"/>
+    <col min="6" max="6" width="2" style="30" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="30" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="34"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="34"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="34"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="34"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="34"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="34"/>
+      <c r="F6" s="29"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="34"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="34"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="34"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="34"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="34"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="34"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="34"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="34"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="34"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="34"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="34"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="34"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="34"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="34"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="34"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="34"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="34"/>
+      <c r="F23" s="29"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="34"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="34"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="34"/>
+      <c r="F26" s="29"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="34"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="34"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="34"/>
+      <c r="F29" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5672,52 +5647,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="E1" s="30">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="B2" s="33">
-        <v>793</v>
-      </c>
-      <c r="C2" s="31">
-        <v>5.2440153418859943E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/SANTA_MARIA.xlsx
+++ b/SANTA_MARIA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{330852B7-FBAC-4A98-B41D-44AA9880FF10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9695887-FD5C-4395-B350-C9D07B514FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1228,7 +1228,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{EB329FFC-CAEC-40D0-8BA8-9C137F31F99B}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{C95D28F0-367A-4D99-B612-138A1A832A3B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1258,10 +1258,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB399B8-E5E3-4E05-B5C8-D6F0624D8BAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C05341D-BE29-4E81-90FA-EE3F97B4C2F9}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1299,7 +1299,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{998DE5A6-29B7-419D-A38B-40411B2F47D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80A5A471-23BA-4874-BD2A-325BD3061037}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1362,7 +1362,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B8E4E2-6FD6-4B25-844C-A97963792651}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBD599C-26CB-4D79-A231-3C59FB540019}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1381,7 +1381,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F76F6509-3D87-14F0-4DEA-86F261BE11FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D3BDA84-83DB-E559-DEC7-32F3912D2967}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1430,7 +1430,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B492B12-F723-0603-A009-5806782719BA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BFF51D5-F991-E345-B173-F4EEFAFDE8A4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1449,7 +1449,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C124DE00-3FA0-9611-5313-96149862D1BB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2681B52-504B-FFE6-DD76-03EF2F381D03}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1480,7 +1480,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8730E2A-C56A-12E1-A32C-D41ACE674F58}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D61415-D860-D75B-0DB8-DB68C5844A4A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1511,7 +1511,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5846F52A-79A5-CA97-6849-CC0C15E3335D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19DF6B24-6F7F-1983-3D09-1D8CFAADEAB0}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1554,7 +1554,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03960E3D-CC70-4077-9BBF-7F0D93BBF53A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{165D365B-0D51-4136-B7CC-D00F419A9654}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,7 +1592,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{975719C2-1B9E-4FCA-8716-0712D394865C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{670DC1DF-0677-4200-BF14-1273471A9815}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,50 +1617,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC38E1C1-DC25-4DDC-813E-E1BC2CEC4B71}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1948,7 +1904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916232E7-9955-43E0-B706-E1A0FAC246A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466BC05C-444A-4112-81A1-014E308A3F3D}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
